--- a/assets/references/Reference & Support Directory.xlsx
+++ b/assets/references/Reference & Support Directory.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gizasystems-my.sharepoint.com/personal/norhan_zaki_gizasystems_com/Documents/Scrap/R1 Waklthrough/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEZ000\WORK\Scrap\Training _ Walkthrough Matrials\client_site_updated\assets\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{47EB899E-CC77-40A3-ACD0-EA4BE5FF3E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE82C7BD-06C4-4521-9169-56B96161F8C0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF206D-FE0E-47BF-9405-D3D7BF16DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{D5DA8323-819F-4552-9831-D4EF8CAB95E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5DA8323-819F-4552-9831-D4EF8CAB95E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
     <sheet name="Important Documents" sheetId="3" r:id="rId2"/>
     <sheet name="Support Contacts" sheetId="2" r:id="rId3"/>
+    <sheet name="VPN Credentials " sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Persona</t>
   </si>
@@ -125,17 +124,41 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>amarghlani@solutions.com.sa</t>
+  </si>
+  <si>
+    <t>amarghlani</t>
+  </si>
+  <si>
+    <t>M@c4!9#EzL^vT6Qy</t>
+  </si>
+  <si>
+    <t>r.aloufi@jedco.sa</t>
+  </si>
+  <si>
+    <t>raloufi</t>
+  </si>
+  <si>
+    <t>P^x#U7n@2Mw!zR5q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,7 +166,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -151,20 +174,32 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,15 +207,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,15 +578,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -552,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -560,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -568,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -576,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -606,14 +662,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="143.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="143.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -624,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -632,7 +688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -643,7 +699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -670,16 +726,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE1B037-8C4F-43C6-9C38-44C151DD9DDA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -690,12 +746,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>28</v>
       </c>
@@ -706,4 +762,61 @@
     <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K0000FF General access&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B3278F-595F-469B-862E-E62F8E951D3B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:amarghlani@solutions.com.sa" display="mailto:amarghlani@solutions.com.sa" xr:uid="{FA58C4FC-2321-4C42-85A2-9EF690CE9CF2}"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="mailto:r.aloufi@jedco.sa" display="mailto:r.aloufi@jedco.sa" xr:uid="{6B491BEC-1775-4624-9893-E42E71D4D160}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/references/Reference & Support Directory.xlsx
+++ b/assets/references/Reference & Support Directory.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEZ000\WORK\Scrap\Training _ Walkthrough Matrials\client_site_updated\assets\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF206D-FE0E-47BF-9405-D3D7BF16DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E660DA27-1B06-4814-9ABB-264D105B48D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D5DA8323-819F-4552-9831-D4EF8CAB95E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{D5DA8323-819F-4552-9831-D4EF8CAB95E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Important Documents" sheetId="3" r:id="rId2"/>
-    <sheet name="Support Contacts" sheetId="2" r:id="rId3"/>
-    <sheet name="VPN Credentials " sheetId="4" r:id="rId4"/>
+    <sheet name="Support Contacts" sheetId="2" r:id="rId2"/>
+    <sheet name="VPN Credentials " sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Persona</t>
   </si>
@@ -48,28 +49,46 @@
     <t>Password</t>
   </si>
   <si>
-    <t>URL</t>
+    <t>URLs/ Other Data</t>
   </si>
   <si>
     <t>Super Admin</t>
   </si>
   <si>
+    <t>admin@test.com</t>
+  </si>
+  <si>
     <t>https://10.16.36.3:4200/</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>Officer Admin</t>
+  </si>
+  <si>
+    <t>officeradmin@yopmail.com</t>
   </si>
   <si>
     <t>Driver</t>
   </si>
   <si>
-    <t>http://10.16.46.3:8081/realms/ScrapDev/login-actions/authenticate?client_id=ScrapWebPortal&amp;tab_id=j9z89rfe6LQ&amp;client_data=eyJydSI6Imh0dHBzOi8vMTAuMTYuMzYuMzo0MTAwL2RyaXZlciIsInJ0IjoiY29kZSIsInJtIjoicXVlcnkiLCJzdCI6IjNmMzBmYTA3LTkzMTMtNDAwNy1iZGMxLTlhMDNiZDMwYTBjNiJ9&amp;execution=56a611f3-2667-4869-a601-1fd95e91ec36&amp;kc_locale=ar</t>
+    <t>scrap_d1@yopmail.com</t>
+  </si>
+  <si>
+    <t>User@123</t>
+  </si>
+  <si>
+    <t>https://10.16.36.3:4100/</t>
   </si>
   <si>
     <t>Supplier</t>
   </si>
   <si>
-    <t>http://10.16.46.3:8081/realms/ScrapDev/login-actions/authenticate?client_id=ScrapWebPortal&amp;tab_id=TLkmYj1R4Ms&amp;client_data=eyJydSI6Imh0dHBzOi8vMTAuMTYuMzYuMzo0MTAwL3N1cHBsaWVyIiwicnQiOiJjb2RlIiwicm0iOiJxdWVyeSIsInN0IjoiZDllZmRmOTAtMjIyOS00YjNmLTgwNDctZGViODg4OTY3NTVlIn0&amp;execution=56a611f3-2667-4869-a601-1fd95e91ec36&amp;kc_locale=ar</t>
+    <t>supplier213@yopmail.com</t>
+  </si>
+  <si>
+    <t>Delegate</t>
+  </si>
+  <si>
+    <t>delegate213@yopmail.com</t>
   </si>
   <si>
     <t>VISA Card</t>
@@ -78,52 +97,28 @@
     <t>4000000000000002     CVV: 123</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Slides</t>
-  </si>
-  <si>
-    <t>This will help you to recap the training topics</t>
-  </si>
-  <si>
-    <t>Personas Facilities &amp; Work Flows</t>
-  </si>
-  <si>
-    <t>This will help you to have a quick review on the work flows and its steps</t>
-  </si>
-  <si>
-    <t>https://gizasystems-my.sharepoint.com/:w:/p/norhan_zaki/Eb_RyWF0LKFDjXc_EQ8u3M0BH8rGQfrAVlhAkw7S4RN4xw?e=WOStqP</t>
-  </si>
-  <si>
-    <t>User Guide</t>
-  </si>
-  <si>
-    <t>This document will help you with every step you need to take</t>
-  </si>
-  <si>
-    <t>https://gizasystems-my.sharepoint.com/:u:/r/personal/ahmed_hisham_gizasystems_com/Documents/Attachments/Scrap%20User%20Guide%20(08-09-25).rar?csf=1&amp;web=1&amp;e=c39MmI</t>
+    <t>MASTER Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5498383801606532     CVV: 977 </t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Contact Type</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
+    <t>Mohamed Omara</t>
+  </si>
+  <si>
+    <t>mohamed.omara@gizasystems.com</t>
+  </si>
+  <si>
+    <t>Norhan Ashraf</t>
+  </si>
+  <si>
+    <t>norhan.zaki@gizasystems.com</t>
   </si>
   <si>
     <t>Mail</t>
@@ -154,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +179,25 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +210,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -222,20 +240,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,80 +793,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5020C1F2-7CBC-4C54-9EF1-71CF9C3FB7D1}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="13">
+        <v>1234</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C3" s="13">
+        <v>1234</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D4" s="21" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1234</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1234</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{23A42176-EED8-4858-A30B-B045725AD9F8}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{9BC3D1EC-E9A2-4301-82C9-74BE43638C23}"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://10.16.46.3:8081/realms/ScrapDev/login-actions/authenticate?client_id=ScrapWebPortal&amp;tab_id=TLkmYj1R4Ms&amp;client_data=eyJydSI6Imh0dHBzOi8vMTAuMTYuMzYuMzo0MTAwL3N1cHBsaWVyIiwicnQiOiJjb2RlIiwicm0iOiJxdWVyeSIsInN0IjoiZDllZmRmOTAtMjIyOS00YjNmLTgwNDctZGViODg4OTY3NTVlIn0&amp;execution=56a611f3-2667-4869-a601-1fd95e91ec36&amp;kc_locale=ar" xr:uid="{733E1391-8C87-4A2D-BF04-8F6AAEB8D6D0}"/>
-    <hyperlink ref="D4" r:id="rId4" display="http://10.16.46.3:8081/realms/ScrapDev/login-actions/authenticate?client_id=ScrapWebPortal&amp;tab_id=j9z89rfe6LQ&amp;client_data=eyJydSI6Imh0dHBzOi8vMTAuMTYuMzYuMzo0MTAwL2RyaXZlciIsInJ0IjoiY29kZSIsInJtIjoicXVlcnkiLCJzdCI6IjNmMzBmYTA3LTkzMTMtNDAwNy1iZGMxLTlhMDNiZDMwYTBjNiJ9&amp;execution=56a611f3-2667-4869-a601-1fd95e91ec36&amp;kc_locale=ar" xr:uid="{0BBF4461-E33A-4068-9129-B37EDFB70B88}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{DAE45FC4-5B13-4E25-8376-AAE5CE58B4FD}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{7AC9FAE9-0B5F-4C31-AF5E-1AE914F54914}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{22A904A7-67D8-4418-8D6F-BCF554BD5DBA}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{A9E62CC0-0A70-4DD6-8AB0-0451163C5A75}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{D594A450-EF9C-4BA7-9C35-10939645E8A5}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{79200E41-EE03-4FAD-A8E5-3ED975FB2D7F}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{5AF06A1B-5107-4EF3-9248-783A8EB10873}"/>
+    <hyperlink ref="B3" r:id="rId10" xr:uid="{AF5F4D21-684D-44C8-9F39-07C75012AC54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -655,65 +933,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EB4E39-34E5-4CF4-8240-123634360512}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE1B037-8C4F-43C6-9C38-44C151DD9DDA}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="143.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{286E665F-721F-4F0A-871E-A786C853FF0C}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{E5EFDBC1-002F-4CB8-8D92-0014005F715F}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D164DC64-7D7B-4FA2-B522-CE4234697ADC}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{0438C825-8CCD-4B61-AB20-8E9EB0B37CE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -723,93 +983,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE1B037-8C4F-43C6-9C38-44C151DD9DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B3278F-595F-469B-862E-E62F8E951D3B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K0000FF General access&amp;1#_x000D_</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B3278F-595F-469B-862E-E62F8E951D3B}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
